--- a/sourcefiles/datacell/데이터설계표.xlsx
+++ b/sourcefiles/datacell/데이터설계표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="테이블설계표" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="182">
   <si>
     <t>전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,38 @@
   </si>
   <si>
     <t>USER1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰참여자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰점수총합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1273,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I71"/>
+  <dimension ref="B3:I72"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2643,26 +2675,49 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="19">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C71" s="11">
         <v>7</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="D71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I71" s="18" t="s">
+      <c r="I71" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="19">
+        <v>7</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2675,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F81"/>
+  <dimension ref="B2:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2822,21 +2877,38 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="13" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="19">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -3435,7 +3507,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="11">
+      <c r="B57" s="19">
         <v>9</v>
       </c>
       <c r="C57" s="17" t="s">
@@ -3580,70 +3652,70 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="19">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="11">
         <v>7</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="17" t="s">
+      <c r="C69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="70" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="19">
+        <v>8</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
+    <row r="74" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="8" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F75" s="10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="11">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>43</v>
@@ -3652,7 +3724,7 @@
         <v>46</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>94</v>
@@ -3660,7 +3732,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>43</v>
@@ -3669,7 +3741,7 @@
         <v>46</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>94</v>
@@ -3677,7 +3749,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>43</v>
@@ -3686,7 +3758,7 @@
         <v>46</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>94</v>
@@ -3694,7 +3766,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>43</v>
@@ -3703,7 +3775,7 @@
         <v>46</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>94</v>
@@ -3711,35 +3783,69 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="11">
         <v>6</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="C81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F81" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="19">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="11">
         <v>7</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="17" t="s">
+      <c r="C82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E82" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="19">
+        <v>8</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83" s="20">
         <v>0</v>
       </c>
     </row>
